--- a/Document/FaceIIkeyboard.xlsx
+++ b/Document/FaceIIkeyboard.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hra\Documents\Arduino\Sketches\msx0keyboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\msx0keyboard\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="6780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>0A</t>
   </si>
@@ -337,6 +338,16 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾キーのチェックサム計算</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -806,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1435,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1858,4 +1869,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>HEX2DEC("3")</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F4">
+        <f>HEX2DEC("13")</f>
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H4">
+        <f>HEX2DEC("23")</f>
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J4">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K4">
+        <f>HEX2DEC("1F")</f>
+        <v>31</v>
+      </c>
+      <c r="L4" t="str">
+        <f>DEC2HEX(-SUM(C4:K4))</f>
+        <v>FFFFFFFBF1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f>HEX2DEC("3")</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F5">
+        <f>HEX2DEC("13")</f>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H5">
+        <f>HEX2DEC("23")</f>
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K5">
+        <f>HEX2DEC("17")</f>
+        <v>23</v>
+      </c>
+      <c r="L5" t="str">
+        <f>DEC2HEX(-SUM(C5:K5))</f>
+        <v>FFFFFFFBF9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>HEX2DEC("3")</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F6">
+        <f>HEX2DEC("13")</f>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <f>HEX2DEC("23")</f>
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K6">
+        <f>HEX2DEC("0F")</f>
+        <v>15</v>
+      </c>
+      <c r="L6" t="str">
+        <f>DEC2HEX(-SUM(C6:K6))</f>
+        <v>FFFFFFFC01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f>HEX2DEC("83")</f>
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F7">
+        <f>HEX2DEC("93")</f>
+        <v>147</v>
+      </c>
+      <c r="G7">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H7">
+        <f>HEX2DEC("A3")</f>
+        <v>163</v>
+      </c>
+      <c r="I7">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K7">
+        <f>HEX2DEC("1F")</f>
+        <v>31</v>
+      </c>
+      <c r="L7" t="str">
+        <f>DEC2HEX(-SUM(C7:K7))</f>
+        <v>FFFFFFFA71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f>HEX2DEC("83")</f>
+        <v>131</v>
+      </c>
+      <c r="E8">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F8">
+        <f>HEX2DEC("93")</f>
+        <v>147</v>
+      </c>
+      <c r="G8">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H8">
+        <f>HEX2DEC("A3")</f>
+        <v>163</v>
+      </c>
+      <c r="I8">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <f>HEX2DEC("B1")</f>
+        <v>177</v>
+      </c>
+      <c r="K8">
+        <f>HEX2DEC("1F")</f>
+        <v>31</v>
+      </c>
+      <c r="L8" t="str">
+        <f>DEC2HEX(-SUM(C8:K8))</f>
+        <v>FFFFFFFA70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/FaceIIkeyboard.xlsx
+++ b/Document/FaceIIkeyboard.xlsx
@@ -1873,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L8"/>
+  <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,6 +2099,48 @@
         <v>FFFFFFFA70</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <f>HEX2DEC("0A")</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>HEX2DEC("03")</f>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="F9">
+        <f>HEX2DEC("13")</f>
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="H9">
+        <f>HEX2DEC("23")</f>
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <f>HEX2DEC("FF")</f>
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K9">
+        <f>HEX2DEC("0F")</f>
+        <v>15</v>
+      </c>
+      <c r="L9" t="str">
+        <f>DEC2HEX(-SUM(C9:K9))</f>
+        <v>FFFFFFFC01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/FaceIIkeyboard.xlsx
+++ b/Document/FaceIIkeyboard.xlsx
@@ -1873,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L9"/>
+  <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" ref="C4:C10" si="0">HEX2DEC("0A")</f>
         <v>10</v>
       </c>
       <c r="D4">
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" ref="E4:E10" si="1">HEX2DEC("FF")</f>
         <v>255</v>
       </c>
       <c r="F4">
@@ -1907,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" ref="G4:G10" si="2">HEX2DEC("FF")</f>
         <v>255</v>
       </c>
       <c r="H4">
@@ -1915,7 +1915,7 @@
         <v>35</v>
       </c>
       <c r="I4">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" ref="I4:I10" si="3">HEX2DEC("FF")</f>
         <v>255</v>
       </c>
       <c r="J4">
@@ -1927,13 +1927,13 @@
         <v>31</v>
       </c>
       <c r="L4" t="str">
-        <f>DEC2HEX(-SUM(C4:K4))</f>
+        <f t="shared" ref="L4:L9" si="4">DEC2HEX(-SUM(C4:K4))</f>
         <v>FFFFFFFBF1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C5">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D5">
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F5">
@@ -1949,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="H5">
@@ -1957,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="I5">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="J5">
@@ -1969,13 +1969,13 @@
         <v>23</v>
       </c>
       <c r="L5" t="str">
-        <f>DEC2HEX(-SUM(C5:K5))</f>
+        <f t="shared" si="4"/>
         <v>FFFFFFFBF9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C6">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D6">
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F6">
@@ -1991,7 +1991,7 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="H6">
@@ -1999,7 +1999,7 @@
         <v>35</v>
       </c>
       <c r="I6">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="J6">
@@ -2011,13 +2011,13 @@
         <v>15</v>
       </c>
       <c r="L6" t="str">
-        <f>DEC2HEX(-SUM(C6:K6))</f>
+        <f t="shared" si="4"/>
         <v>FFFFFFFC01</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C7">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D7">
@@ -2025,7 +2025,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F7">
@@ -2033,7 +2033,7 @@
         <v>147</v>
       </c>
       <c r="G7">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="H7">
@@ -2041,7 +2041,7 @@
         <v>163</v>
       </c>
       <c r="I7">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="J7">
@@ -2053,13 +2053,13 @@
         <v>31</v>
       </c>
       <c r="L7" t="str">
-        <f>DEC2HEX(-SUM(C7:K7))</f>
+        <f t="shared" si="4"/>
         <v>FFFFFFFA71</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C8">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D8">
@@ -2067,7 +2067,7 @@
         <v>131</v>
       </c>
       <c r="E8">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F8">
@@ -2075,7 +2075,7 @@
         <v>147</v>
       </c>
       <c r="G8">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="H8">
@@ -2083,7 +2083,7 @@
         <v>163</v>
       </c>
       <c r="I8">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="J8">
@@ -2095,13 +2095,13 @@
         <v>31</v>
       </c>
       <c r="L8" t="str">
-        <f>DEC2HEX(-SUM(C8:K8))</f>
+        <f t="shared" si="4"/>
         <v>FFFFFFFA70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C9">
-        <f>HEX2DEC("0A")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D9">
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="F9">
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="H9">
@@ -2125,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="I9">
-        <f>HEX2DEC("FF")</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="J9">
@@ -2137,8 +2137,50 @@
         <v>15</v>
       </c>
       <c r="L9" t="str">
-        <f>DEC2HEX(-SUM(C9:K9))</f>
+        <f t="shared" si="4"/>
         <v>FFFFFFFC01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>HEX2DEC("03")</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F10">
+        <f>HEX2DEC("13")</f>
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="H10">
+        <f>HEX2DEC("23")</f>
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <f>HEX2DEC("B0")</f>
+        <v>176</v>
+      </c>
+      <c r="K10">
+        <f>HEX2DEC("0E")</f>
+        <v>14</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10" si="5">DEC2HEX(-SUM(C10:K10))</f>
+        <v>FFFFFFFC02</v>
       </c>
     </row>
   </sheetData>
